--- a/tbl打包工具/excel/storyConfig3.xlsx
+++ b/tbl打包工具/excel/storyConfig3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>storyId</t>
   </si>
@@ -197,6 +197,50 @@
   </si>
   <si>
     <t>8001-3001;8001-2000;8001-3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平元年正月，曹操在陈留首倡义兵号召天下英雄讨伐董卓。关东州郡起兵讨董，推举袁绍为盟主，袁绍自号车骑将军，曹操被授行奋武将军。曹操认为既然起兵讨董，就应有所行动，便率兵向西，准备进驻成皋，张邈派卫兹领兵随曹操。曹操行至荥阳汴水，与董卓大将徐荣交锋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平三年，青州黄巾军大获发展，连破兖州郡县，阵斩兖州刺史刘岱。济北相鲍信等人迎曹操出任兖州牧，曹操和鲍信合军进攻黄巾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平二年，曹操在东郡追击于毒、白绕、眭固、於扶罗等黄巾乱贼。袁绍表曹操为东郡太守。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平三年冬，曹操获黄巾降卒三十余万，人口百余万。曹操收其精锐，组成军队，号青州兵。初平四年春，曹操在匡亭六百里大追击大败袁术、黑山军、南匈奴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平四年春，徐州牧陶谦率军攻入兖州南部的任城，曹操率军征讨陶谦攻克徐州十余城。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平四年3月，袁术进兵陈留攻曹操，袁绍助曹操击败袁术，曹操还军定陶。袁术出南阳，东走九江，杀扬州刺史陈温，占据淮南。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平四年秋，曹操的父亲曹嵩来曹操处路上，被陶谦派兵杀害，曹操遂进兵徐州，陶谦退守郯县。不久曹操军粮将尽，撤围回军。次年夏，曹操再征徐州，略地至东海。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴平元年，东郡守备陈宫对曹操不满，于是与陈留太守张邈、张邈之弟张超、从事中郎许汜及王楷等同谋叛乱，迎吕布为兖州牧。曹操从徐州赶回，遂进军围攻濮阳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴平二年，曹操整军再战吕布，三败之，破定陶、廪丘等，平定兖州。吕布逃往徐州投靠刘备。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建安三年九月，曹操东征徐州，吕布见大势已去，下城投降。曹操将吕布、陈宫、高顺等人处死，收降吕布部将张辽以及泰山豪杰臧霸、孙观等人。诸将封赏。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,10 +284,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,22 +596,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="80.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -580,8 +631,11 @@
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -600,8 +654,11 @@
       <c r="F2" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -620,8 +677,11 @@
       <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -640,8 +700,11 @@
       <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -660,8 +723,11 @@
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -680,8 +746,11 @@
       <c r="F6" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -700,8 +769,11 @@
       <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -720,8 +792,11 @@
       <c r="F8" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -740,8 +815,11 @@
       <c r="F9" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G9" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -760,8 +838,11 @@
       <c r="F10" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G10" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -779,6 +860,9 @@
       </c>
       <c r="F11" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig3.xlsx
+++ b/tbl打包工具/excel/storyConfig3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>storyId</t>
   </si>
@@ -32,10 +32,6 @@
     <t>reward</t>
   </si>
   <si>
-    <t>6001-50;6002-100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>talk</t>
   </si>
   <si>
@@ -62,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对话内容，以;分割。人物ID字符串和文本用-分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>targetCity</t>
   </si>
   <si>
@@ -93,154 +85,144 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8001-3003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>东郡之战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>济北之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9020;9022;9027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄巾之乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述（方便参考）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励官职Id_str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励武将Id_str, 以;分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝光和七年（184年）全国大旱，冀州巨鹿人张角高喊“苍天已死，黄天当立，岁在甲子，天下大吉”，利用奇书《太平要术》，率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以外戚何进为大将军，统率左右羽林军屯兵洛阳，拱卫京师。命左中郎将皇甫嵩、右中郎将朱儁率步骑四万重点进攻颍川黄巾军。北中郎将卢植率北军讨伐河北黄巾军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长社之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9004;9005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年（184年）2月，张曼成率南阳黄巾军主力进攻中原战略要地宛城，4月，波才率部击败朱儁，进围皇甫嵩于长社。皇甫嵩乘夜纵火，大败黄巾军，又与朱儁、曹操三军合击，斩杀黄巾军万人，取得长社大捷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年（184年），曹操因追随黄甫嵩、朱隽进攻黄巾起义军有功，被提升为济南国相。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南国相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3002;3003;3004;3005;3006;3007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈留起兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝中平六年(189年)4月,灵帝崩，皇子刘辩继位，年十七，史称少帝。8月，宦官杀大将军何进，董卓迎少帝于北邙。9月，董卓废少帝刘辩为弘农王，立九岁的陈留王刘协为帝，年九岁，是为献帝。汉灵帝中平六年(189年)12月，曹操在陈留首倡义兵号召天下英雄讨伐董卓。汉献帝初平元年(190年)1月,董卓令李儒毒死弘农王(少帝) ,各路诸侯起兵反董卓。推举袁绍为盟主，袁绍自号车骑将军，曹操被授行奋武将军。</t>
+  </si>
+  <si>
+    <t>初平元年（190年）2月,董卓焚洛阳，迁都长安。袁绍等惧怕董卓，不敢进攻。曹操认为既然起兵讨董，就应有所行动，便率兵向西，准备进驻成皋，张邈派卫兹领兵随曹操。曹操行至荥阳汴水，与董卓大将徐荣交锋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平二年（191年），曹操在东郡追击于毒、白绕、眭固、於扶罗等黄巾乱贼。袁绍表曹操为东郡太守。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平三年，青州黄巾军大获发展，连破兖州郡县，阵斩兖州刺史刘岱。济北相鲍信等人迎曹操出任兖州牧，曹操和鲍信合军进攻黄巾。初平三年冬，曹操获黄巾降卒三十余万，人口百余万。曹操收其精锐，组成军队，号青州兵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9020;9022;9027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>9025;9026</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9020;9027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-3004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>济北之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9020;9022;9027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-3005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>匡亭之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9014;9020;9027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-3006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任城之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9028;9029;9030</t>
-  </si>
-  <si>
-    <t>9028;9029;9030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-3007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈留之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9014;9031;9032</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郯城之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-3008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>濮阳之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-3009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9033;9034;9035;9036</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-3010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定陶之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-3011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>论功封赏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001-3001;8001-2000;8001-3002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平元年正月，曹操在陈留首倡义兵号召天下英雄讨伐董卓。关东州郡起兵讨董，推举袁绍为盟主，袁绍自号车骑将军，曹操被授行奋武将军。曹操认为既然起兵讨董，就应有所行动，便率兵向西，准备进驻成皋，张邈派卫兹领兵随曹操。曹操行至荥阳汴水，与董卓大将徐荣交锋。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平三年，青州黄巾军大获发展，连破兖州郡县，阵斩兖州刺史刘岱。济北相鲍信等人迎曹操出任兖州牧，曹操和鲍信合军进攻黄巾。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平二年，曹操在东郡追击于毒、白绕、眭固、於扶罗等黄巾乱贼。袁绍表曹操为东郡太守。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平三年冬，曹操获黄巾降卒三十余万，人口百余万。曹操收其精锐，组成军队，号青州兵。初平四年春，曹操在匡亭六百里大追击大败袁术、黑山军、南匈奴。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平四年春，徐州牧陶谦率军攻入兖州南部的任城，曹操率军征讨陶谦攻克徐州十余城。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平四年3月，袁术进兵陈留攻曹操，袁绍助曹操击败袁术，曹操还军定陶。袁术出南阳，东走九江，杀扬州刺史陈温，占据淮南。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平四年秋，曹操的父亲曹嵩来曹操处路上，被陶谦派兵杀害，曹操遂进兵徐州，陶谦退守郯县。不久曹操军粮将尽，撤围回军。次年夏，曹操再征徐州，略地至东海。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴平元年，东郡守备陈宫对曹操不满，于是与陈留太守张邈、张邈之弟张超、从事中郎许汜及王楷等同谋叛乱，迎吕布为兖州牧。曹操从徐州赶回，遂进军围攻濮阳。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴平二年，曹操整军再战吕布，三败之，破定陶、廪丘等，平定兖州。吕布逃往徐州投靠刘备。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建安三年九月，曹操东征徐州，吕布见大势已去，下城投降。曹操将吕布、陈宫、高顺等人处死，收降吕布部将张辽以及泰山豪杰臧霸、孙观等人。诸将封赏。</t>
+    <t>对话内容id_str，以;分割。</t>
+  </si>
+  <si>
+    <t>1001;1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003;1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001;2002;2003;2004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3002;3003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3005;3006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -607,262 +589,243 @@
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="80.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="80.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>9003</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1202</v>
+        <v>1301</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1205</v>
+        <v>1001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3001</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>901</v>
+        <v>1201</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1203</v>
+        <v>9003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="I6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3004</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>1101</v>
+        <v>1205</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1202</v>
-      </c>
-      <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1206</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1105</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="F8" s="1">
+        <v>5001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -874,16 +837,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="57.75" customWidth="1"/>
+    <col min="2" max="2" width="64.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -896,26 +859,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -923,15 +886,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig3.xlsx
+++ b/tbl打包工具/excel/storyConfig3.xlsx
@@ -124,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>描述（方便参考）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>offical</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汉灵帝光和七年（184年）全国大旱，冀州巨鹿人张角高喊“苍天已死，黄天当立，岁在甲子，天下大吉”，利用奇书《太平要术》，率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以外戚何进为大将军，统率左右羽林军屯兵洛阳，拱卫京师。命左中郎将皇甫嵩、右中郎将朱儁率步骑四万重点进攻颍川黄巾军。北中郎将卢植率北军讨伐河北黄巾军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>长社之战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>光和七年（184年）2月，张曼成率南阳黄巾军主力进攻中原战略要地宛城，4月，波才率部击败朱儁，进围皇甫嵩于长社。皇甫嵩乘夜纵火，大败黄巾军，又与朱儁、曹操三军合击，斩杀黄巾军万人，取得长社大捷。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>光和七年（184年），曹操因追随黄甫嵩、朱隽进攻黄巾起义军有功，被提升为济南国相。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,21 +168,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汉灵帝中平六年(189年)4月,灵帝崩，皇子刘辩继位，年十七，史称少帝。8月，宦官杀大将军何进，董卓迎少帝于北邙。9月，董卓废少帝刘辩为弘农王，立九岁的陈留王刘协为帝，年九岁，是为献帝。汉灵帝中平六年(189年)12月，曹操在陈留首倡义兵号召天下英雄讨伐董卓。汉献帝初平元年(190年)1月,董卓令李儒毒死弘农王(少帝) ,各路诸侯起兵反董卓。推举袁绍为盟主，袁绍自号车骑将军，曹操被授行奋武将军。</t>
-  </si>
-  <si>
-    <t>初平元年（190年）2月,董卓焚洛阳，迁都长安。袁绍等惧怕董卓，不敢进攻。曹操认为既然起兵讨董，就应有所行动，便率兵向西，准备进驻成皋，张邈派卫兹领兵随曹操。曹操行至荥阳汴水，与董卓大将徐荣交锋。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初平二年（191年），曹操在东郡追击于毒、白绕、眭固、於扶罗等黄巾乱贼。袁绍表曹操为东郡太守。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初平三年，青州黄巾军大获发展，连破兖州郡县，阵斩兖州刺史刘岱。济北相鲍信等人迎曹操出任兖州牧，曹操和鲍信合军进攻黄巾。初平三年冬，曹操获黄巾降卒三十余万，人口百余万。曹操收其精锐，组成军队，号青州兵。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9020;9022;9027</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,6 +200,30 @@
   </si>
   <si>
     <t>3005;3006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述（战斗介绍用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝光和七年（184年），冀州巨鹿人张角率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以何进为大将军，统率左右羽林军屯兵洛阳。命左中郎将皇甫嵩、右中郎将朱儁进攻颍川黄巾军，北中郎将卢植率北军讨伐河北黄巾军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年（184年）4月，波才率部击败朱儁，进围皇甫嵩于长社。皇甫嵩乘夜纵火，大败黄巾军，又与朱儁、曹操三军合击，斩杀黄巾军万人，取得长社大捷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝中平六年(189年)4月,灵帝崩，皇子刘辩继位。8月，宦官杀大将军何进，董卓迎少帝于北邙。9月，董卓废少帝立刘协为帝。12月，曹操在陈留首倡义兵号召天下英雄讨伐董卓。汉献帝初平元年(190年)1月,董卓令李儒毒死少帝 ,各路诸侯起兵反董卓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平元年（190年）2月,董卓焚洛阳，迁都长安。袁绍等惧怕董卓，不敢进攻。曹操认为既然起兵讨董，就应有所行动，便率兵向西。曹操行至荥阳汴水，与董卓大将徐荣交锋。汉献帝初平二年(191年)2月,反董联军解散。4月,董卓入长安。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平三年，青州黄巾军连破兖州郡县，阵斩兖州刺史刘岱，济北相鲍信等人迎曹操出任兖州牧。初平三年冬，曹操获黄巾降卒三十余万，人口百余万。曹操收其精锐，组成军队，号青州兵。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -625,7 +626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -648,13 +649,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -662,13 +663,13 @@
         <v>1301</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -677,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -691,7 +692,7 @@
         <v>1001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -703,16 +704,16 @@
         <v>1001</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2">
         <v>3001</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -720,7 +721,7 @@
         <v>1201</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -735,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
@@ -752,10 +753,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -764,10 +765,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -781,10 +782,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1">
         <v>3001</v>
@@ -796,10 +797,10 @@
         <v>3004</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -813,7 +814,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1">
         <v>5001</v>
@@ -822,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -840,7 +841,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -891,18 +892,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -910,7 +911,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -918,7 +919,7 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig3.xlsx
+++ b/tbl打包工具/excel/storyConfig3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>storyId</t>
   </si>
@@ -224,6 +224,26 @@
   </si>
   <si>
     <t>初平三年，青州黄巾军连破兖州郡县，阵斩兖州刺史刘岱，济北相鲍信等人迎曹操出任兖州牧。初平三年冬，曹操获黄巾降卒三十余万，人口百余万。曹操收其精锐，组成军队，号青州兵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangjinjun.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线剧情动画文件，0标识无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taodonglianjun.mp4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,25 +599,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="80.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="80.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -608,25 +629,28 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -636,26 +660,29 @@
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -665,26 +692,29 @@
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -697,23 +727,26 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>1001</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>3001</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -723,26 +756,29 @@
       <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -752,26 +788,29 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -781,26 +820,29 @@
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>3001</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>3004</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -810,22 +852,25 @@
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>5001</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -838,10 +883,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -876,49 +921,57 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>48</v>
       </c>
     </row>

--- a/tbl打包工具/excel/storyConfig3.xlsx
+++ b/tbl打包工具/excel/storyConfig3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>storyId</t>
   </si>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3002;3003;3004;3005;3006;3007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陈留起兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,6 +240,46 @@
   </si>
   <si>
     <t>taodonglianjun.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-1000;404-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>404-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-1000;402-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3002;3003;3004;3005;3006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励士兵，以;分割。物品ID字符串和数量用-分割</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -610,15 +646,16 @@
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="80.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="80.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -629,7 +666,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -638,19 +675,22 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -661,7 +701,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -669,20 +709,23 @@
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
+      <c r="G2" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>43</v>
+      <c r="I2" s="1">
+        <v>3007</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -701,20 +744,23 @@
       <c r="F3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
+      <c r="G3" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>44</v>
+      <c r="I3" s="1">
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -733,20 +779,23 @@
       <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1">
         <v>1001</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="2">
         <v>3001</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -754,10 +803,10 @@
         <v>1201</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -765,20 +814,23 @@
       <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
+      <c r="G5" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>45</v>
+      <c r="I5" s="1">
+        <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -792,25 +844,28 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
+      <c r="G6" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -824,25 +879,28 @@
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="1">
         <v>3001</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
         <v>3004</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="K7" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -861,17 +919,20 @@
       <c r="F8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="1">
         <v>5001</v>
       </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>53</v>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -883,10 +944,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -921,10 +982,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -945,34 +1006,42 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
-        <v>48</v>
+      <c r="B11" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig3.xlsx
+++ b/tbl打包工具/excel/storyConfig3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>storyId</t>
   </si>
@@ -280,6 +280,18 @@
   </si>
   <si>
     <t>奖励士兵，以;分割。物品ID字符串和数量用-分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleIdStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗ID字符串，0标识无战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleIdStr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -323,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -334,6 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -635,27 +648,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" activeCellId="1" sqref="G17 G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="80.75" style="3" customWidth="1"/>
+    <col min="4" max="5" width="19.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="80.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -668,29 +681,32 @@
       <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -706,26 +722,29 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
       <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
         <v>3007</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -738,29 +757,32 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -776,26 +798,29 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>1001</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>3001</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -811,26 +836,29 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -843,29 +871,32 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -878,29 +909,32 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>3001</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
         <v>3004</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -913,25 +947,28 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>5001</v>
       </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -944,10 +981,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -990,57 +1027,65 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>47</v>
       </c>
     </row>

--- a/tbl打包工具/excel/storyConfig3.xlsx
+++ b/tbl打包工具/excel/storyConfig3.xlsx
@@ -140,158 +140,158 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>9004;9005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年（184年），曹操因追随黄甫嵩、朱隽进攻黄巾起义军有功，被提升为济南国相。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南国相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈留起兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平二年（191年），曹操在东郡追击于毒、白绕、眭固、於扶罗等黄巾乱贼。袁绍表曹操为东郡太守。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9020;9022;9027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9025;9026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话内容id_str，以;分割。</t>
+  </si>
+  <si>
+    <t>1001;1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003;1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001;2002;2003;2004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3002;3003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3005;3006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述（战斗介绍用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝光和七年（184年），冀州巨鹿人张角率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以何进为大将军，统率左右羽林军屯兵洛阳。命左中郎将皇甫嵩、右中郎将朱儁进攻颍川黄巾军，北中郎将卢植率北军讨伐河北黄巾军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年（184年）4月，波才率部击败朱儁，进围皇甫嵩于长社。皇甫嵩乘夜纵火，大败黄巾军，又与朱儁、曹操三军合击，斩杀黄巾军万人，取得长社大捷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝中平六年(189年)4月,灵帝崩，皇子刘辩继位。8月，宦官杀大将军何进，董卓迎少帝于北邙。9月，董卓废少帝立刘协为帝。12月，曹操在陈留首倡义兵号召天下英雄讨伐董卓。汉献帝初平元年(190年)1月,董卓令李儒毒死少帝 ,各路诸侯起兵反董卓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平元年（190年）2月,董卓焚洛阳，迁都长安。袁绍等惧怕董卓，不敢进攻。曹操认为既然起兵讨董，就应有所行动，便率兵向西。曹操行至荥阳汴水，与董卓大将徐荣交锋。汉献帝初平二年(191年)2月,反董联军解散。4月,董卓入长安。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平三年，青州黄巾军连破兖州郡县，阵斩兖州刺史刘岱，济北相鲍信等人迎曹操出任兖州牧。初平三年冬，曹操获黄巾降卒三十余万，人口百余万。曹操收其精锐，组成军队，号青州兵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangjinjun.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线剧情动画文件，0标识无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taodonglianjun.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-1000;404-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>404-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-1000;402-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3002;3003;3004;3005;3006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励士兵，以;分割。物品ID字符串和数量用-分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleIdStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗ID字符串，0标识无战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleIdStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>长社之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9004;9005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光和七年（184年），曹操因追随黄甫嵩、朱隽进攻黄巾起义军有功，被提升为济南国相。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>济南国相</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈留起兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平二年（191年），曹操在东郡追击于毒、白绕、眭固、於扶罗等黄巾乱贼。袁绍表曹操为东郡太守。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9020;9022;9027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9025;9026</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话内容id_str，以;分割。</t>
-  </si>
-  <si>
-    <t>1001;1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003;1004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001;2002;2003;2004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3002;3003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3005;3006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述（战斗介绍用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉灵帝光和七年（184年），冀州巨鹿人张角率领三十六方渠帅掀起了大规模叛乱。2月，汉灵帝以何进为大将军，统率左右羽林军屯兵洛阳。命左中郎将皇甫嵩、右中郎将朱儁进攻颍川黄巾军，北中郎将卢植率北军讨伐河北黄巾军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光和七年（184年）4月，波才率部击败朱儁，进围皇甫嵩于长社。皇甫嵩乘夜纵火，大败黄巾军，又与朱儁、曹操三军合击，斩杀黄巾军万人，取得长社大捷。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉灵帝中平六年(189年)4月,灵帝崩，皇子刘辩继位。8月，宦官杀大将军何进，董卓迎少帝于北邙。9月，董卓废少帝立刘协为帝。12月，曹操在陈留首倡义兵号召天下英雄讨伐董卓。汉献帝初平元年(190年)1月,董卓令李儒毒死少帝 ,各路诸侯起兵反董卓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平元年（190年）2月,董卓焚洛阳，迁都长安。袁绍等惧怕董卓，不敢进攻。曹操认为既然起兵讨董，就应有所行动，便率兵向西。曹操行至荥阳汴水，与董卓大将徐荣交锋。汉献帝初平二年(191年)2月,反董联军解散。4月,董卓入长安。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平三年，青州黄巾军连破兖州郡县，阵斩兖州刺史刘岱，济北相鲍信等人迎曹操出任兖州牧。初平三年冬，曹操获黄巾降卒三十余万，人口百余万。曹操收其精锐，组成军队，号青州兵。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vedio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huangjinjun.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vedio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主线剧情动画文件，0标识无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taodonglianjun.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>403-1000;404-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>402-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>403-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>404-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401-1000;402-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3002;3003;3004;3005;3006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励士兵，以;分割。物品ID字符串和数量用-分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battleIdStr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗ID字符串，0标识无战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battleIdStr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,7 +651,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" activeCellId="1" sqref="G17 G17"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -679,10 +679,10 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -691,7 +691,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>3007</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -752,22 +752,22 @@
         <v>1301</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>301</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -790,7 +790,7 @@
         <v>1001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -805,19 +805,19 @@
         <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I4" s="1">
         <v>1001</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4" s="2">
         <v>3001</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
@@ -828,10 +828,10 @@
         <v>1201</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -852,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
@@ -872,16 +872,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>302</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -890,10 +890,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -910,16 +910,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>303</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I7" s="1">
         <v>3001</v>
@@ -931,7 +931,7 @@
         <v>3004</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -948,16 +948,16 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I8" s="1">
         <v>5001</v>
@@ -966,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1019,18 +1019,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
         <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
         <v>68</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -1051,10 +1051,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
         <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -1078,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -1086,7 +1086,7 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig3.xlsx
+++ b/tbl打包工具/excel/storyConfig3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="136">
   <si>
     <t>storyId</t>
   </si>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>曹操（155年－220年）游戏中为了增加可玩性，设定193年后曹操一直在争夺徐州、青州和豫州等地，而没有经历迎接汉帝、官渡之战、赤壁之战等战役。初始点谯郡。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,51 +166,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>101;102;103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凉州之乱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huangjinjun.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西园八校尉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>官拜骑都尉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>组建部曲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6001-1000;6002-1000;6003-1000;6101-1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>长社之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>6001-1000;6002-1000;6101-1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支援皇甫嵩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长社之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>402-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官拜济南相</t>
+    <t>公元189年（汉灵帝中平六年）4月，汉灵帝崩，皇子刘辩继位。8月，宦官杀何进，董卓迎少帝于北邙。9月，董卓废少帝刘辩为弘农王，立九岁的陈留王刘协为帝，是为献帝。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈留举义兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨董联军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taodonglianjun.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公元190年（汉献帝初平元年）1月，各路诸侯起兵反董卓,各群雄都推举袁绍为盟主，袁绍自号车骑将军，曹操被授行奋武将军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屯兵酸枣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000;6003-1000;6101-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东郡之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000;6003-1000;6101-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报… …主公，我军发现于毒、白绕等黄巾逆贼，请主公速作战斗准备。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -222,75 +226,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>401-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>典军校尉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>404-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>404-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董卓乱政</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106;107;108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公元184年（汉灵帝光和七年）2月，冀州巨鹿人张角掀起了黄巾之乱。10月，汉灵帝调遣皇甫嵩为帅，进攻广宗黄巾军。张角病死，皇甫蒿大败张梁等。11月，皇甫蒿转战曲阳，张宝战死。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜主公，朝廷册封主公为骑都尉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组建武将部曲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主公，皇甫嵩与朱儁将军率领四万多人在颍川郡镇压黄巾军，被黄巾军波才部大败。皇甫嵩被波才围困在长社，城中兵少，众寡悬殊，军心不稳。朝廷急诏我军速速支援… …</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报… …主公，皇甫嵩将军于长社城外纵火，黄巾军大乱，惊慌后撤。我军应立即加入战斗，和皇甫嵩和朱儁将军合兵，乘胜追击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主公，我军大破黄巾军，斩首数万级。朝廷封主公为济南相。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公元186年（汉灵帝中平三年）8月，边章、韩遂在凉州作乱，汉灵帝派司空张温以车骑将军身份西征平叛，张温上表要求孙坚协同出征。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公元188年（汉灵帝中平五年）8月，汉灵帝设置西园八校尉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜主公，被朝廷任命为西园八校尉中的典军校尉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公元189年（汉灵帝中平六年）4月，汉灵帝崩，皇子刘辩继位。8月，宦官杀何进，董卓迎少帝于北邙。9月，董卓废少帝刘辩为弘农王，立九岁的陈留王刘协为帝，是为献帝。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主公，现董卓废少帝，改立陈留王为汉献帝，自称太师，专擅朝政。主公应逃出京师雒阳，回陈留“散家财，合义兵”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈留举义兵</t>
+    <t>恭喜主公，我军大获全胜。请主公论功封赏，激励我军有功将士。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郡守封赏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计杀董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公元192年（汉献帝初平三年）4月，王允设连环计，吕布杀死董卓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出任兖州牧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000;6003-1000;6101-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000;6003-1000;6101-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3009;3010;3011;3014;3016;3017;3018;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报… …主公，近日，青州黄巾军大获发展，连破兖州（治昌邑）郡县，阵斩兖州刺史刘岱。济北相鲍信等人前来东郡迎接主公出任兖州牧，请主公和鲍信合军，前往兖州平叛黄巾乱军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿张之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000;6101-1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -298,178 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3003;3004;3005;3007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组建四部曲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新组建四个武将部曲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨董联军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>story_3.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taodonglianjun.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109;110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公元190年（汉献帝初平元年）1月，各路诸侯起兵反董卓,各群雄都推举袁绍为盟主，袁绍自号车骑将军，曹操被授行奋武将军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屯兵酸枣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主公，讨董联军推荐主公代理奋武将军。命济北相鲍信与主公屯兵酸枣一带，请主公带兵前往回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>404-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险西进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主公，董卓焚洛阳，迁都长安，关东联军诸将惧怕董卓，不敢进攻。主公应率兵西进，有所行动，为天下做表率。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1000;6003-1000;6101-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报… …主公，大事不好，董卓大将徐荣领兵前来，我军应速作应战准备。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荥阳之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东郡太守</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1000;6101-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1000;6101-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主公，如今董卓已西退长安，不易孤军深入。袁绍表主公为东郡太守，令主公前往剿灭于毒等黄巾乱贼。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诸侯割据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhuhougeju.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111;112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公元191年（汉献帝初平二年）2月，孙坚率豫州军攻入洛阳，反董联军解散。7月，袁绍夺州牧韩馥的冀州，自领州牧，诸侯割据形成。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东郡之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1000;6003-1000;6101-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报… …主公，我军发现于毒、白绕等黄巾逆贼，请主公速作战斗准备。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1000;6101-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜主公，我军大获全胜。请主公论功封赏，激励我军有功将士。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启主城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郡守封赏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计杀董卓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公元192年（汉献帝初平三年）4月，王允设连环计，吕布杀死董卓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出任兖州牧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1000;6003-1000;6101-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1000;6003-1000;6101-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>404-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3009;3010;3011;3014;3016;3017;3018;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报… …主公，近日，青州黄巾军大获发展，连破兖州（治昌邑）郡县，阵斩兖州刺史刘岱。济北相鲍信等人前来东郡迎接主公出任兖州牧，请主公和鲍信合军，前往兖州平叛黄巾乱军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寿张之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6001-1000;6002-1000;6101-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>403-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>报… …主公，鲍信将军于黄巾乱军交战多日，不幸战死。现黄巾乱军聚于寿张城东，请主公速率军前往，为鲍信将军报仇。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -487,10 +291,6 @@
   </si>
   <si>
     <t>公元192年（汉献帝初平三年）4月，鲍信等人至东郡迎曹操领兖州牧。击败青州黄巾军于寿张东，收编黄巾军三十余万人，人口百余万。曹操选其精壮建“青州兵”，实力得以壮大。6月，李傕、郭汜等围攻长安。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜主公获得太守一职，请主公立刻开府理事（建造1级官府），保一方太平。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -667,6 +467,182 @@
   </si>
   <si>
     <t>主公，我军应趁势收复东郡，从而重新掌控兖州。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙坚（155年－191年）字文台，吴郡富春（今浙江杭州富阳）人。游戏中孙坚襄阳之战后重伤，修养恢复后采用其长子孙策建议，开拓江东基业，受封吴王。初始点吴郡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公元184年（汉灵帝光和七年）2月，冀州巨鹿人张角高喊“苍天已死，黄天当立，岁在甲子，天下大吉”的口号，利用奇书《太平要术》笼络人心，掀起了推翻汉王朝的大规模起义，史称黄巾之乱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜主公，皇帝宣布解除党锢，组织政府军平定叛乱，册封主公为骑都尉。命主公在关东一带招募了士兵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>募兵三千</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000;6003-1000;6101-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，朝廷命一个月内招募三千士兵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组建部曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000;6101-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，士兵已经招募完毕，请组建武将部曲，准备平叛乱军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援长社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，5月皇甫嵩与朱儁将军被颍川郡黄巾军波才部大败，被围困在长社，军心不稳。朝廷急诏我军速速支援… …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报… …主公，皇甫嵩将军于长社城外纵火，黄巾军大乱。我军应立即加入战斗，合兵追击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangjinqiyi.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平定黄巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chengwang.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公元184年（汉灵帝光和七年）年底，由皇甫嵩、朱儁等人率领的政府军剿灭各地黄巾军，汉灵帝刘宏为表天下安宁，于是改元中平。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌邑之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公元186年（汉灵帝中平三年），兖州黄巾余孽死灰复燃，皇帝命令我军前往昌邑平乱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜济南国相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜主公，多年平叛有功，被朝廷任命为济南国相。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3003;3005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董卓乱政</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dongzhuorujing.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108;109;110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，现董卓废少帝，改立陈留王为汉献帝，自称太师，专擅朝政。主公可去陈留招募可战之兵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组建部曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000;6101-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，士兵已经招募完毕，请组建武将部曲，准备准备讨伐董贼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112;113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3004;3007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，各群雄都推举袁绍为盟主，袁绍自号车骑将军，曹操被授行奋武将军。请主公屯兵酸枣一带。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，董卓焚洛阳，迁都长安，董卓大将徐荣驻守荥阳，我军主公应率兵西进，为天下做表率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荥阳之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东郡之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报… …主公，东郡黄巾余孽死灰复燃，袁绍令主公前往剿灭于毒等黄巾乱贼，稳定联军后方。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论功封赏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，我军已作战多年，袁绍表主公为东郡太守。请主公论功封赏，激励我军有功将士。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸侯割据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhuhougeju.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114;115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公元192年（汉献帝初平三年）4月，王允设连环计，吕布杀死董卓，诸侯割据形成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启主城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6001-1000;6002-1000;6003-1000;6101-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，割据之势已成，请主公立刻开府理事（建造1级官府），保一方太平。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1057,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1081,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -1122,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>326</v>
+        <v>803</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>32</v>
@@ -1149,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1166,7 +1142,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -1183,11 +1159,11 @@
       <c r="J3" s="5">
         <v>0</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>39</v>
+      <c r="K3" s="6">
+        <v>101</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1201,7 +1177,7 @@
         <v>403</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E4" s="6">
         <v>0</v>
@@ -1210,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>54</v>
+        <v>39</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
       </c>
       <c r="I4" s="6">
-        <v>2002</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
+        <v>2003</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="K4" s="6">
         <v>3001</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1239,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -1248,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="H5" s="6">
         <v>0</v>
@@ -1260,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1274,10 +1250,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="5">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
@@ -1286,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="H6" s="6">
         <v>0</v>
@@ -1298,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="6">
-        <v>3002</v>
+        <v>103</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1312,22 +1288,22 @@
         <v>3</v>
       </c>
       <c r="C7" s="5">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
       </c>
       <c r="F7" s="6">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -1336,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="6">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1350,34 +1326,34 @@
         <v>3</v>
       </c>
       <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
         <v>301</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
       </c>
       <c r="I8" s="6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="6">
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1391,69 +1367,69 @@
         <v>0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="5">
+        <v>106</v>
+      </c>
+      <c r="F9" s="6">
         <v>0</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
       </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
         <v>0</v>
       </c>
       <c r="K9" s="6">
         <v>104</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="5">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="F10" s="6">
+        <v>302</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
         <v>0</v>
       </c>
       <c r="K10" s="6">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1464,10 +1440,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="5">
-        <v>403</v>
+        <v>301</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
@@ -1476,22 +1452,22 @@
         <v>0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
       </c>
       <c r="I11" s="5">
-        <v>4000</v>
+        <v>3001</v>
       </c>
       <c r="J11" s="5">
         <v>0</v>
       </c>
       <c r="K11" s="6">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1505,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
@@ -1526,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1543,7 +1519,7 @@
         <v>318</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
@@ -1552,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>70</v>
+        <v>48</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="K13" s="6">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1581,16 +1557,16 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="H14" s="5">
         <v>0</v>
@@ -1602,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="K14" s="6">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -1619,10 +1595,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
@@ -1640,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -1657,7 +1633,7 @@
         <v>9009</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
@@ -1666,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>81</v>
+        <v>41</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
       </c>
       <c r="I16" s="6">
         <v>0</v>
@@ -1678,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="K16" s="6">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1695,16 +1671,16 @@
         <v>9011</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="5">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
@@ -1716,10 +1692,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="6">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1730,22 +1706,22 @@
         <v>3</v>
       </c>
       <c r="C18" s="5">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
       </c>
       <c r="F18" s="5">
-        <v>102</v>
+        <v>303</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
       </c>
       <c r="I18" s="5">
         <v>0</v>
@@ -1754,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="6">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1768,10 +1744,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="5">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
@@ -1780,22 +1756,22 @@
         <v>0</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="H19" s="5">
         <v>0</v>
       </c>
       <c r="I19" s="5">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="J19" s="5">
         <v>0</v>
       </c>
       <c r="K19" s="6">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1803,22 +1779,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" s="5">
         <v>0</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="F20" s="5">
         <v>0</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>89</v>
+      <c r="G20" s="6">
+        <v>0</v>
       </c>
       <c r="H20" s="5">
         <v>0</v>
@@ -1829,11 +1805,11 @@
       <c r="J20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="6">
-        <v>3011</v>
+      <c r="K20" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1844,19 +1820,19 @@
         <v>1</v>
       </c>
       <c r="C21" s="5">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>92</v>
+        <v>133</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
       </c>
       <c r="F21" s="5">
         <v>0</v>
       </c>
-      <c r="G21" s="6">
-        <v>0</v>
+      <c r="G21" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="H21" s="5">
         <v>0</v>
@@ -1867,11 +1843,11 @@
       <c r="J21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>93</v>
+      <c r="K21" s="6">
+        <v>116</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1885,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
@@ -1894,10 +1870,10 @@
         <v>103</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>97</v>
+        <v>58</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
@@ -1909,7 +1885,7 @@
         <v>3012</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1923,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -1932,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="H23" s="5">
         <v>0</v>
@@ -1947,7 +1923,7 @@
         <v>3013</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1961,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
@@ -1985,7 +1961,7 @@
         <v>113</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1999,7 +1975,7 @@
         <v>315</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -2008,22 +1984,22 @@
         <v>0</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>108</v>
+        <v>72</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
       </c>
       <c r="I25" s="5">
         <v>5001</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="K25" s="6">
         <v>3014</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -2037,7 +2013,7 @@
         <v>314</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="E26" s="6">
         <v>0</v>
@@ -2046,10 +2022,10 @@
         <v>104</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>113</v>
+        <v>59</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
       </c>
       <c r="I26" s="5">
         <v>0</v>
@@ -2061,7 +2037,7 @@
         <v>3015</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="7" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -2075,10 +2051,10 @@
         <v>0</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="F27" s="5">
         <v>0</v>
@@ -2096,10 +2072,10 @@
         <v>0</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -2113,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
@@ -2122,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="H28" s="5">
         <v>0</v>
@@ -2137,7 +2113,7 @@
         <v>3016</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -2151,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
@@ -2160,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="H29" s="5">
         <v>0</v>
@@ -2175,10 +2151,10 @@
         <v>3017</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -2189,7 +2165,7 @@
         <v>317</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="E30" s="6">
         <v>0</v>
@@ -2198,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="I30" s="5">
         <v>0</v>
@@ -2213,7 +2189,7 @@
         <v>3018</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2227,7 +2203,7 @@
         <v>9009</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -2236,10 +2212,10 @@
         <v>105</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -2251,7 +2227,7 @@
         <v>3019</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2265,7 +2241,7 @@
         <v>314</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -2274,10 +2250,10 @@
         <v>106</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -2289,7 +2265,7 @@
         <v>3020</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2303,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -2327,7 +2303,7 @@
         <v>116</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -2341,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -2362,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2379,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -2403,7 +2379,7 @@
         <v>119</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2417,7 +2393,7 @@
         <v>317</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -2426,10 +2402,10 @@
         <v>107</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -2441,7 +2417,7 @@
         <v>3021</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2475,10 +2451,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -2486,7 +2462,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -2550,7 +2526,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">

--- a/tbl打包工具/excel/storyConfig3.xlsx
+++ b/tbl打包工具/excel/storyConfig3.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="146">
   <si>
     <t>storyId</t>
   </si>
@@ -151,10 +151,6 @@
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧情类型，1事件叙述，2武将来投，3主线任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -643,6 +639,50 @@
   </si>
   <si>
     <t>主公，割据之势已成，请主公立刻开府理事（建造1级官府），保一方太平。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频剧情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移至城池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组建部曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封官拜将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主城建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -740,12 +780,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -787,7 +830,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -822,7 +865,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1033,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1125,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -1142,7 +1185,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -1163,7 +1206,7 @@
         <v>101</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1171,22 +1214,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="6">
         <v>403</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="H4" s="6">
         <v>0</v>
@@ -1195,13 +1238,13 @@
         <v>2003</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K4" s="6">
         <v>3001</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1215,16 +1258,16 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="H5" s="6">
         <v>0</v>
@@ -1239,7 +1282,7 @@
         <v>102</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1247,22 +1290,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="H6" s="6">
         <v>0</v>
@@ -1277,7 +1320,7 @@
         <v>103</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1285,13 +1328,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="5">
         <v>324</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -1300,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="6">
         <v>0</v>
@@ -1315,7 +1358,7 @@
         <v>3002</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1323,13 +1366,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
@@ -1338,7 +1381,7 @@
         <v>301</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
@@ -1353,7 +1396,7 @@
         <v>3003</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1367,10 +1410,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -1391,7 +1434,7 @@
         <v>104</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1399,13 +1442,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="5">
         <v>315</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
@@ -1414,7 +1457,7 @@
         <v>302</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
@@ -1429,7 +1472,7 @@
         <v>107</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1437,13 +1480,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="5">
         <v>301</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
@@ -1452,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -1467,7 +1510,7 @@
         <v>3004</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1481,31 +1524,31 @@
         <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="L12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1519,7 +1562,7 @@
         <v>318</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
@@ -1528,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -1537,13 +1580,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K13" s="6">
         <v>3005</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1551,22 +1594,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="H14" s="5">
         <v>0</v>
@@ -1581,7 +1624,7 @@
         <v>111</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1595,31 +1638,31 @@
         <v>0</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1627,13 +1670,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="6">
         <v>9009</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
@@ -1642,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="6">
         <v>0</v>
@@ -1657,7 +1700,7 @@
         <v>3006</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1665,13 +1708,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" s="6">
         <v>9011</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
@@ -1680,7 +1723,7 @@
         <v>303</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
@@ -1695,7 +1738,7 @@
         <v>3007</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1703,13 +1746,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="5">
         <v>317</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
@@ -1718,7 +1761,7 @@
         <v>303</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="6">
         <v>0</v>
@@ -1733,7 +1776,7 @@
         <v>3008</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1741,13 +1784,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C19" s="5">
         <v>301</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
@@ -1756,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" s="5">
         <v>0</v>
@@ -1771,7 +1814,7 @@
         <v>3009</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1785,31 +1828,31 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6" t="s">
+      <c r="L20" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1817,22 +1860,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C21" s="5">
         <v>317</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="H21" s="5">
         <v>0</v>
@@ -1847,7 +1890,7 @@
         <v>116</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1861,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="6">
         <v>0</v>
@@ -1870,7 +1913,7 @@
         <v>103</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H22" s="6">
         <v>0</v>
@@ -1885,7 +1928,7 @@
         <v>3012</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1899,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -1908,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H23" s="5">
         <v>0</v>
@@ -1923,7 +1966,7 @@
         <v>3013</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1937,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
@@ -1961,7 +2004,7 @@
         <v>113</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1975,7 +2018,7 @@
         <v>315</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -1984,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H25" s="6">
         <v>0</v>
@@ -1993,13 +2036,13 @@
         <v>5001</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K25" s="6">
         <v>3014</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -2013,7 +2056,7 @@
         <v>314</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="6">
         <v>0</v>
@@ -2022,7 +2065,7 @@
         <v>104</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H26" s="6">
         <v>0</v>
@@ -2037,7 +2080,7 @@
         <v>3015</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="7" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -2051,31 +2094,31 @@
         <v>0</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
-        <v>0</v>
-      </c>
-      <c r="J27" s="5">
-        <v>0</v>
-      </c>
-      <c r="K27" s="6" t="s">
+      <c r="L27" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -2089,16 +2132,16 @@
         <v>0</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="H28" s="5">
         <v>0</v>
@@ -2113,7 +2156,7 @@
         <v>3016</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -2127,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
@@ -2136,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H29" s="5">
         <v>0</v>
@@ -2151,7 +2194,7 @@
         <v>3017</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2165,19 +2208,19 @@
         <v>317</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="I30" s="5">
         <v>0</v>
@@ -2189,7 +2232,7 @@
         <v>3018</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2203,7 +2246,7 @@
         <v>9009</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -2212,10 +2255,10 @@
         <v>105</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -2227,7 +2270,7 @@
         <v>3019</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2241,7 +2284,7 @@
         <v>314</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -2250,10 +2293,10 @@
         <v>106</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -2265,7 +2308,7 @@
         <v>3020</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2279,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -2303,7 +2346,7 @@
         <v>116</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
@@ -2317,31 +2360,31 @@
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2355,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -2379,7 +2422,7 @@
         <v>119</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2393,7 +2436,7 @@
         <v>317</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -2402,10 +2445,10 @@
         <v>107</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -2417,7 +2460,7 @@
         <v>3021</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2429,10 +2472,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2454,7 +2497,7 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -2462,7 +2505,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -2526,7 +2569,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -2535,6 +2578,78 @@
       </c>
       <c r="B12" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/storyConfig3.xlsx
+++ b/tbl打包工具/excel/storyConfig3.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -726,12 +726,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -746,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -770,6 +776,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -788,7 +806,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -830,7 +848,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -865,7 +883,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1076,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F16" activeCellId="1" sqref="F16 F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1758,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>49</v>
@@ -1893,41 +1911,41 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="5">
+    <row r="22" spans="1:12" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="9">
         <v>3</v>
       </c>
-      <c r="C22" s="5">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
         <v>103</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6">
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="10">
         <v>3012</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L22" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2474,8 +2492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
